--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Необходимость сопутствующих услуг (ШМР, ПНР)</t>
   </si>
   <si>
-    <t>Необходимый срок поставки</t>
-  </si>
-  <si>
     <t>Кол-во</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Валюта</t>
+  </si>
+  <si>
+    <t>Необходимый срок поставки (необходимо указать дату в формате ДД.ММ.ГГГГ либо значение "ASAP"  в случае, если доставка нужна как можно скорее)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
     <col min="12" max="12" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,25 +491,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>7</v>

--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$K$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Лист1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,51 +24,47 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">№ п/п</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование МТР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Документ в соответствии с которым необходимо изготовление (НТД: ГОСТ/ТУ, ТЗ, ОЛ, ЗТП и т.п.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кол-во</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ед. измерения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимый срок поставки (необходимо указать дату в формате ДД.ММ.ГГГГ либо значение "ASAP"  в случае, если доставка нужна как можно скорее)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Базис поставки (пункт до которого требуется доставка)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Условия оплаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начальная максимальная цена</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валюта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Необходимость сопутствующих услуг (ШМР, ПНР)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Примечания/комментарии</t>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Наименование МТР</t>
+  </si>
+  <si>
+    <t>Документ в соответствии с которым необходимо изготовление (НТД: ГОСТ/ТУ, ТЗ, ОЛ, ЗТП и т.п.)</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Ед. измерения</t>
+  </si>
+  <si>
+    <t>Необходимый срок поставки (необходимо указать дату в формате ДД.ММ.ГГГГ либо значение "ASAP"  в случае, если доставка нужна как можно скорее)</t>
+  </si>
+  <si>
+    <t>Базис поставки (пункт до которого требуется доставка)</t>
+  </si>
+  <si>
+    <t>Условия оплаты</t>
+  </si>
+  <si>
+    <t>Начальная максимальная цена</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>Необходимость сопутствующих услуг (ШМР, ПНР)</t>
+  </si>
+  <si>
+    <t>Примечания/комментарии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,22 +73,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -111,125 +90,372 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="33.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.68"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" customWidth="1"/>
+    <col min="9" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="98" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" ht="135">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -267,7 +493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -281,7 +507,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -295,7 +521,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -309,7 +535,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -323,7 +549,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -337,7 +563,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -351,7 +577,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -365,7 +591,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -379,7 +605,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -393,7 +619,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -409,13 +635,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u.glushenko\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="7680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
@@ -22,49 +27,222 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Наименование МТР</t>
-  </si>
-  <si>
-    <t>Документ в соответствии с которым необходимо изготовление (НТД: ГОСТ/ТУ, ТЗ, ОЛ, ЗТП и т.п.)</t>
-  </si>
-  <si>
-    <t>Кол-во</t>
-  </si>
-  <si>
-    <t>Ед. измерения</t>
-  </si>
-  <si>
-    <t>Необходимый срок поставки (необходимо указать дату в формате ДД.ММ.ГГГГ либо значение "ASAP"  в случае, если доставка нужна как можно скорее)</t>
-  </si>
-  <si>
-    <t>Базис поставки (пункт до которого требуется доставка)</t>
-  </si>
-  <si>
-    <t>Условия оплаты</t>
-  </si>
-  <si>
     <t>Начальная максимальная цена</t>
   </si>
   <si>
     <t>Валюта</t>
   </si>
   <si>
-    <t>Необходимость сопутствующих услуг (ШМР, ПНР)</t>
-  </si>
-  <si>
     <t>Примечания/комментарии</t>
+  </si>
+  <si>
+    <t>ШМР</t>
+  </si>
+  <si>
+    <t>ПНР</t>
+  </si>
+  <si>
+    <t>Инспекционный контроль</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Документ, в соответствии с которым необходимо изготовление (НТД: ГОСТ/ТУ, ТЗ, ОЛ, ЗТП и т.п.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Наименование МТР </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Кол-во </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ед. измерения </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Необходимый срок поставки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(необходимо указать дату в формате ДД.ММ.ГГГГ либо значение "ASAP"  в случае, если доставка нужна как можно скорее)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Базис поставки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(пункт, до которого требуется доставка)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Условия оплаты </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Необходимость сопутствующих услуг 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(при необходимости услуги заполните соответствующее поле любым символом; если услуга не требутся - оставьте ячейки пустыми)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Требуется согласование РКД
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>(при необходимости согласования РКД заполните поле любым символом; если не требутся - оставьте поле пустым)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -80,16 +258,30 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -119,34 +311,66 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -193,7 +417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,9 +449,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,6 +484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -434,69 +660,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
     <col min="9" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="34.7109375" customWidth="1"/>
-    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
+    <col min="16" max="1028" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="135">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="6"/>
@@ -504,138 +740,219 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
+  <mergeCells count="10">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u.glushenko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fedor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD06093-154A-4165-A0F2-3B0DFB71DE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2M+vjSeYIG9WMQQceLN73IvvE2iQJy7azehpLaXuxhPlrYmB8XKpvyrzfUVjxl6dLdOhKci2TGuiSZIAnECV3Q==" workbookSaltValue="/F38On1GzmT1UNFTdEW7rA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="7680" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Заявка" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Лист1!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Заявка!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -67,22 +77,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Наименование МТР </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Кол-во </t>
     </r>
     <r>
@@ -237,11 +231,27 @@
       <t>(при необходимости согласования РКД заполните поле любым символом; если не требутся - оставьте поле пустым)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Наименование МТР </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -267,7 +277,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -330,38 +346,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -450,6 +571,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -485,6 +623,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -660,287 +815,1110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMN1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" customWidth="1"/>
-    <col min="9" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" customWidth="1"/>
-    <col min="15" max="15" width="34.7109375" customWidth="1"/>
-    <col min="16" max="1028" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.42578125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" style="1" customWidth="1"/>
+    <col min="16" max="1028" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="1029" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="4" t="s">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25"/>
+    <row r="17" x14ac:dyDescent="0.25"/>
+    <row r="18" x14ac:dyDescent="0.25"/>
+    <row r="19" x14ac:dyDescent="0.25"/>
+    <row r="20" x14ac:dyDescent="0.25"/>
+    <row r="21" x14ac:dyDescent="0.25"/>
+    <row r="22" x14ac:dyDescent="0.25"/>
+    <row r="23" x14ac:dyDescent="0.25"/>
+    <row r="24" x14ac:dyDescent="0.25"/>
+    <row r="25" x14ac:dyDescent="0.25"/>
+    <row r="26" x14ac:dyDescent="0.25"/>
+    <row r="27" x14ac:dyDescent="0.25"/>
+    <row r="28" x14ac:dyDescent="0.25"/>
+    <row r="29" x14ac:dyDescent="0.25"/>
+    <row r="30" x14ac:dyDescent="0.25"/>
+    <row r="31" x14ac:dyDescent="0.25"/>
+    <row r="32" x14ac:dyDescent="0.25"/>
+    <row r="33" x14ac:dyDescent="0.25"/>
+    <row r="34" x14ac:dyDescent="0.25"/>
+    <row r="35" x14ac:dyDescent="0.25"/>
+    <row r="36" x14ac:dyDescent="0.25"/>
+    <row r="37" x14ac:dyDescent="0.25"/>
+    <row r="38" x14ac:dyDescent="0.25"/>
+    <row r="39" x14ac:dyDescent="0.25"/>
+    <row r="40" x14ac:dyDescent="0.25"/>
+    <row r="41" x14ac:dyDescent="0.25"/>
+    <row r="42" x14ac:dyDescent="0.25"/>
+    <row r="43" x14ac:dyDescent="0.25"/>
+    <row r="44" x14ac:dyDescent="0.25"/>
+    <row r="45" x14ac:dyDescent="0.25"/>
+    <row r="46" x14ac:dyDescent="0.25"/>
+    <row r="47" x14ac:dyDescent="0.25"/>
+    <row r="48" x14ac:dyDescent="0.25"/>
+    <row r="49" x14ac:dyDescent="0.25"/>
+    <row r="50" x14ac:dyDescent="0.25"/>
+    <row r="51" x14ac:dyDescent="0.25"/>
+    <row r="52" x14ac:dyDescent="0.25"/>
+    <row r="53" x14ac:dyDescent="0.25"/>
+    <row r="54" x14ac:dyDescent="0.25"/>
+    <row r="55" x14ac:dyDescent="0.25"/>
+    <row r="56" x14ac:dyDescent="0.25"/>
+    <row r="57" x14ac:dyDescent="0.25"/>
+    <row r="58" x14ac:dyDescent="0.25"/>
+    <row r="59" x14ac:dyDescent="0.25"/>
+    <row r="60" x14ac:dyDescent="0.25"/>
+    <row r="61" x14ac:dyDescent="0.25"/>
+    <row r="62" x14ac:dyDescent="0.25"/>
+    <row r="63" x14ac:dyDescent="0.25"/>
+    <row r="64" x14ac:dyDescent="0.25"/>
+    <row r="65" x14ac:dyDescent="0.25"/>
+    <row r="66" x14ac:dyDescent="0.25"/>
+    <row r="67" x14ac:dyDescent="0.25"/>
+    <row r="68" x14ac:dyDescent="0.25"/>
+    <row r="69" x14ac:dyDescent="0.25"/>
+    <row r="70" x14ac:dyDescent="0.25"/>
+    <row r="71" x14ac:dyDescent="0.25"/>
+    <row r="72" x14ac:dyDescent="0.25"/>
+    <row r="73" x14ac:dyDescent="0.25"/>
+    <row r="74" x14ac:dyDescent="0.25"/>
+    <row r="75" x14ac:dyDescent="0.25"/>
+    <row r="76" x14ac:dyDescent="0.25"/>
+    <row r="77" x14ac:dyDescent="0.25"/>
+    <row r="78" x14ac:dyDescent="0.25"/>
+    <row r="79" x14ac:dyDescent="0.25"/>
+    <row r="80" x14ac:dyDescent="0.25"/>
+    <row r="81" x14ac:dyDescent="0.25"/>
+    <row r="82" x14ac:dyDescent="0.25"/>
+    <row r="83" x14ac:dyDescent="0.25"/>
+    <row r="84" x14ac:dyDescent="0.25"/>
+    <row r="85" x14ac:dyDescent="0.25"/>
+    <row r="86" x14ac:dyDescent="0.25"/>
+    <row r="87" x14ac:dyDescent="0.25"/>
+    <row r="88" x14ac:dyDescent="0.25"/>
+    <row r="89" x14ac:dyDescent="0.25"/>
+    <row r="90" x14ac:dyDescent="0.25"/>
+    <row r="91" x14ac:dyDescent="0.25"/>
+    <row r="92" x14ac:dyDescent="0.25"/>
+    <row r="93" x14ac:dyDescent="0.25"/>
+    <row r="94" x14ac:dyDescent="0.25"/>
+    <row r="95" x14ac:dyDescent="0.25"/>
+    <row r="96" x14ac:dyDescent="0.25"/>
+    <row r="97" x14ac:dyDescent="0.25"/>
+    <row r="98" x14ac:dyDescent="0.25"/>
+    <row r="99" x14ac:dyDescent="0.25"/>
+    <row r="100" x14ac:dyDescent="0.25"/>
+    <row r="101" x14ac:dyDescent="0.25"/>
+    <row r="102" x14ac:dyDescent="0.25"/>
+    <row r="103" x14ac:dyDescent="0.25"/>
+    <row r="104" x14ac:dyDescent="0.25"/>
+    <row r="105" x14ac:dyDescent="0.25"/>
+    <row r="106" x14ac:dyDescent="0.25"/>
+    <row r="107" x14ac:dyDescent="0.25"/>
+    <row r="108" x14ac:dyDescent="0.25"/>
+    <row r="109" x14ac:dyDescent="0.25"/>
+    <row r="110" x14ac:dyDescent="0.25"/>
+    <row r="111" x14ac:dyDescent="0.25"/>
+    <row r="112" x14ac:dyDescent="0.25"/>
+    <row r="113" x14ac:dyDescent="0.25"/>
+    <row r="114" x14ac:dyDescent="0.25"/>
+    <row r="115" x14ac:dyDescent="0.25"/>
+    <row r="116" x14ac:dyDescent="0.25"/>
+    <row r="117" x14ac:dyDescent="0.25"/>
+    <row r="118" x14ac:dyDescent="0.25"/>
+    <row r="119" x14ac:dyDescent="0.25"/>
+    <row r="120" x14ac:dyDescent="0.25"/>
+    <row r="121" x14ac:dyDescent="0.25"/>
+    <row r="122" x14ac:dyDescent="0.25"/>
+    <row r="123" x14ac:dyDescent="0.25"/>
+    <row r="124" x14ac:dyDescent="0.25"/>
+    <row r="125" x14ac:dyDescent="0.25"/>
+    <row r="126" x14ac:dyDescent="0.25"/>
+    <row r="127" x14ac:dyDescent="0.25"/>
+    <row r="128" x14ac:dyDescent="0.25"/>
+    <row r="129" x14ac:dyDescent="0.25"/>
+    <row r="130" x14ac:dyDescent="0.25"/>
+    <row r="131" x14ac:dyDescent="0.25"/>
+    <row r="132" x14ac:dyDescent="0.25"/>
+    <row r="133" x14ac:dyDescent="0.25"/>
+    <row r="134" x14ac:dyDescent="0.25"/>
+    <row r="135" x14ac:dyDescent="0.25"/>
+    <row r="136" x14ac:dyDescent="0.25"/>
+    <row r="137" x14ac:dyDescent="0.25"/>
+    <row r="138" x14ac:dyDescent="0.25"/>
+    <row r="139" x14ac:dyDescent="0.25"/>
+    <row r="140" x14ac:dyDescent="0.25"/>
+    <row r="141" x14ac:dyDescent="0.25"/>
+    <row r="142" x14ac:dyDescent="0.25"/>
+    <row r="143" x14ac:dyDescent="0.25"/>
+    <row r="144" x14ac:dyDescent="0.25"/>
+    <row r="145" x14ac:dyDescent="0.25"/>
+    <row r="146" x14ac:dyDescent="0.25"/>
+    <row r="147" x14ac:dyDescent="0.25"/>
+    <row r="148" x14ac:dyDescent="0.25"/>
+    <row r="149" x14ac:dyDescent="0.25"/>
+    <row r="150" x14ac:dyDescent="0.25"/>
+    <row r="151" x14ac:dyDescent="0.25"/>
+    <row r="152" x14ac:dyDescent="0.25"/>
+    <row r="153" x14ac:dyDescent="0.25"/>
+    <row r="154" x14ac:dyDescent="0.25"/>
+    <row r="155" x14ac:dyDescent="0.25"/>
+    <row r="156" x14ac:dyDescent="0.25"/>
+    <row r="157" x14ac:dyDescent="0.25"/>
+    <row r="158" x14ac:dyDescent="0.25"/>
+    <row r="159" x14ac:dyDescent="0.25"/>
+    <row r="160" x14ac:dyDescent="0.25"/>
+    <row r="161" x14ac:dyDescent="0.25"/>
+    <row r="162" x14ac:dyDescent="0.25"/>
+    <row r="163" x14ac:dyDescent="0.25"/>
+    <row r="164" x14ac:dyDescent="0.25"/>
+    <row r="165" x14ac:dyDescent="0.25"/>
+    <row r="166" x14ac:dyDescent="0.25"/>
+    <row r="167" x14ac:dyDescent="0.25"/>
+    <row r="168" x14ac:dyDescent="0.25"/>
+    <row r="169" x14ac:dyDescent="0.25"/>
+    <row r="170" x14ac:dyDescent="0.25"/>
+    <row r="171" x14ac:dyDescent="0.25"/>
+    <row r="172" x14ac:dyDescent="0.25"/>
+    <row r="173" x14ac:dyDescent="0.25"/>
+    <row r="174" x14ac:dyDescent="0.25"/>
+    <row r="175" x14ac:dyDescent="0.25"/>
+    <row r="176" x14ac:dyDescent="0.25"/>
+    <row r="177" x14ac:dyDescent="0.25"/>
+    <row r="178" x14ac:dyDescent="0.25"/>
+    <row r="179" x14ac:dyDescent="0.25"/>
+    <row r="180" x14ac:dyDescent="0.25"/>
+    <row r="181" x14ac:dyDescent="0.25"/>
+    <row r="182" x14ac:dyDescent="0.25"/>
+    <row r="183" x14ac:dyDescent="0.25"/>
+    <row r="184" x14ac:dyDescent="0.25"/>
+    <row r="185" x14ac:dyDescent="0.25"/>
+    <row r="186" x14ac:dyDescent="0.25"/>
+    <row r="187" x14ac:dyDescent="0.25"/>
+    <row r="188" x14ac:dyDescent="0.25"/>
+    <row r="189" x14ac:dyDescent="0.25"/>
+    <row r="190" x14ac:dyDescent="0.25"/>
+    <row r="191" x14ac:dyDescent="0.25"/>
+    <row r="192" x14ac:dyDescent="0.25"/>
+    <row r="193" x14ac:dyDescent="0.25"/>
+    <row r="194" x14ac:dyDescent="0.25"/>
+    <row r="195" x14ac:dyDescent="0.25"/>
+    <row r="196" x14ac:dyDescent="0.25"/>
+    <row r="197" x14ac:dyDescent="0.25"/>
+    <row r="198" x14ac:dyDescent="0.25"/>
+    <row r="199" x14ac:dyDescent="0.25"/>
+    <row r="200" x14ac:dyDescent="0.25"/>
+    <row r="201" x14ac:dyDescent="0.25"/>
+    <row r="202" x14ac:dyDescent="0.25"/>
+    <row r="203" x14ac:dyDescent="0.25"/>
+    <row r="204" x14ac:dyDescent="0.25"/>
+    <row r="205" x14ac:dyDescent="0.25"/>
+    <row r="206" x14ac:dyDescent="0.25"/>
+    <row r="207" x14ac:dyDescent="0.25"/>
+    <row r="208" x14ac:dyDescent="0.25"/>
+    <row r="209" x14ac:dyDescent="0.25"/>
+    <row r="210" x14ac:dyDescent="0.25"/>
+    <row r="211" x14ac:dyDescent="0.25"/>
+    <row r="212" x14ac:dyDescent="0.25"/>
+    <row r="213" x14ac:dyDescent="0.25"/>
+    <row r="214" x14ac:dyDescent="0.25"/>
+    <row r="215" x14ac:dyDescent="0.25"/>
+    <row r="216" x14ac:dyDescent="0.25"/>
+    <row r="217" x14ac:dyDescent="0.25"/>
+    <row r="218" x14ac:dyDescent="0.25"/>
+    <row r="219" x14ac:dyDescent="0.25"/>
+    <row r="220" x14ac:dyDescent="0.25"/>
+    <row r="221" x14ac:dyDescent="0.25"/>
+    <row r="222" x14ac:dyDescent="0.25"/>
+    <row r="223" x14ac:dyDescent="0.25"/>
+    <row r="224" x14ac:dyDescent="0.25"/>
+    <row r="225" x14ac:dyDescent="0.25"/>
+    <row r="226" x14ac:dyDescent="0.25"/>
+    <row r="227" x14ac:dyDescent="0.25"/>
+    <row r="228" x14ac:dyDescent="0.25"/>
+    <row r="229" x14ac:dyDescent="0.25"/>
+    <row r="230" x14ac:dyDescent="0.25"/>
+    <row r="231" x14ac:dyDescent="0.25"/>
+    <row r="232" x14ac:dyDescent="0.25"/>
+    <row r="233" x14ac:dyDescent="0.25"/>
+    <row r="234" x14ac:dyDescent="0.25"/>
+    <row r="235" x14ac:dyDescent="0.25"/>
+    <row r="236" x14ac:dyDescent="0.25"/>
+    <row r="237" x14ac:dyDescent="0.25"/>
+    <row r="238" x14ac:dyDescent="0.25"/>
+    <row r="239" x14ac:dyDescent="0.25"/>
+    <row r="240" x14ac:dyDescent="0.25"/>
+    <row r="241" x14ac:dyDescent="0.25"/>
+    <row r="242" x14ac:dyDescent="0.25"/>
+    <row r="243" x14ac:dyDescent="0.25"/>
+    <row r="244" x14ac:dyDescent="0.25"/>
+    <row r="245" x14ac:dyDescent="0.25"/>
+    <row r="246" x14ac:dyDescent="0.25"/>
+    <row r="247" x14ac:dyDescent="0.25"/>
+    <row r="248" x14ac:dyDescent="0.25"/>
+    <row r="249" x14ac:dyDescent="0.25"/>
+    <row r="250" x14ac:dyDescent="0.25"/>
+    <row r="251" x14ac:dyDescent="0.25"/>
+    <row r="252" x14ac:dyDescent="0.25"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="254" x14ac:dyDescent="0.25"/>
+    <row r="255" x14ac:dyDescent="0.25"/>
+    <row r="256" x14ac:dyDescent="0.25"/>
+    <row r="257" x14ac:dyDescent="0.25"/>
+    <row r="258" x14ac:dyDescent="0.25"/>
+    <row r="259" x14ac:dyDescent="0.25"/>
+    <row r="260" x14ac:dyDescent="0.25"/>
+    <row r="261" x14ac:dyDescent="0.25"/>
+    <row r="262" x14ac:dyDescent="0.25"/>
+    <row r="263" x14ac:dyDescent="0.25"/>
+    <row r="264" x14ac:dyDescent="0.25"/>
+    <row r="265" x14ac:dyDescent="0.25"/>
+    <row r="266" x14ac:dyDescent="0.25"/>
+    <row r="267" x14ac:dyDescent="0.25"/>
+    <row r="268" x14ac:dyDescent="0.25"/>
+    <row r="269" x14ac:dyDescent="0.25"/>
+    <row r="270" x14ac:dyDescent="0.25"/>
+    <row r="271" x14ac:dyDescent="0.25"/>
+    <row r="272" x14ac:dyDescent="0.25"/>
+    <row r="273" x14ac:dyDescent="0.25"/>
+    <row r="274" x14ac:dyDescent="0.25"/>
+    <row r="275" x14ac:dyDescent="0.25"/>
+    <row r="276" x14ac:dyDescent="0.25"/>
+    <row r="277" x14ac:dyDescent="0.25"/>
+    <row r="278" x14ac:dyDescent="0.25"/>
+    <row r="279" x14ac:dyDescent="0.25"/>
+    <row r="280" x14ac:dyDescent="0.25"/>
+    <row r="281" x14ac:dyDescent="0.25"/>
+    <row r="282" x14ac:dyDescent="0.25"/>
+    <row r="283" x14ac:dyDescent="0.25"/>
+    <row r="284" x14ac:dyDescent="0.25"/>
+    <row r="285" x14ac:dyDescent="0.25"/>
+    <row r="286" x14ac:dyDescent="0.25"/>
+    <row r="287" x14ac:dyDescent="0.25"/>
+    <row r="288" x14ac:dyDescent="0.25"/>
+    <row r="289" x14ac:dyDescent="0.25"/>
+    <row r="290" x14ac:dyDescent="0.25"/>
+    <row r="291" x14ac:dyDescent="0.25"/>
+    <row r="292" x14ac:dyDescent="0.25"/>
+    <row r="293" x14ac:dyDescent="0.25"/>
+    <row r="294" x14ac:dyDescent="0.25"/>
+    <row r="295" x14ac:dyDescent="0.25"/>
+    <row r="296" x14ac:dyDescent="0.25"/>
+    <row r="297" x14ac:dyDescent="0.25"/>
+    <row r="298" x14ac:dyDescent="0.25"/>
+    <row r="299" x14ac:dyDescent="0.25"/>
+    <row r="300" x14ac:dyDescent="0.25"/>
+    <row r="301" x14ac:dyDescent="0.25"/>
+    <row r="302" x14ac:dyDescent="0.25"/>
+    <row r="303" x14ac:dyDescent="0.25"/>
+    <row r="304" x14ac:dyDescent="0.25"/>
+    <row r="305" x14ac:dyDescent="0.25"/>
+    <row r="306" x14ac:dyDescent="0.25"/>
+    <row r="307" x14ac:dyDescent="0.25"/>
+    <row r="308" x14ac:dyDescent="0.25"/>
+    <row r="309" x14ac:dyDescent="0.25"/>
+    <row r="310" x14ac:dyDescent="0.25"/>
+    <row r="311" x14ac:dyDescent="0.25"/>
+    <row r="312" x14ac:dyDescent="0.25"/>
+    <row r="313" x14ac:dyDescent="0.25"/>
+    <row r="314" x14ac:dyDescent="0.25"/>
+    <row r="315" x14ac:dyDescent="0.25"/>
+    <row r="316" x14ac:dyDescent="0.25"/>
+    <row r="317" x14ac:dyDescent="0.25"/>
+    <row r="318" x14ac:dyDescent="0.25"/>
+    <row r="319" x14ac:dyDescent="0.25"/>
+    <row r="320" x14ac:dyDescent="0.25"/>
+    <row r="321" x14ac:dyDescent="0.25"/>
+    <row r="322" x14ac:dyDescent="0.25"/>
+    <row r="323" x14ac:dyDescent="0.25"/>
+    <row r="324" x14ac:dyDescent="0.25"/>
+    <row r="325" x14ac:dyDescent="0.25"/>
+    <row r="326" x14ac:dyDescent="0.25"/>
+    <row r="327" x14ac:dyDescent="0.25"/>
+    <row r="328" x14ac:dyDescent="0.25"/>
+    <row r="329" x14ac:dyDescent="0.25"/>
+    <row r="330" x14ac:dyDescent="0.25"/>
+    <row r="331" x14ac:dyDescent="0.25"/>
+    <row r="332" x14ac:dyDescent="0.25"/>
+    <row r="333" x14ac:dyDescent="0.25"/>
+    <row r="334" x14ac:dyDescent="0.25"/>
+    <row r="335" x14ac:dyDescent="0.25"/>
+    <row r="336" x14ac:dyDescent="0.25"/>
+    <row r="337" x14ac:dyDescent="0.25"/>
+    <row r="338" x14ac:dyDescent="0.25"/>
+    <row r="339" x14ac:dyDescent="0.25"/>
+    <row r="340" x14ac:dyDescent="0.25"/>
+    <row r="341" x14ac:dyDescent="0.25"/>
+    <row r="342" x14ac:dyDescent="0.25"/>
+    <row r="343" x14ac:dyDescent="0.25"/>
+    <row r="344" x14ac:dyDescent="0.25"/>
+    <row r="345" x14ac:dyDescent="0.25"/>
+    <row r="346" x14ac:dyDescent="0.25"/>
+    <row r="347" x14ac:dyDescent="0.25"/>
+    <row r="348" x14ac:dyDescent="0.25"/>
+    <row r="349" x14ac:dyDescent="0.25"/>
+    <row r="350" x14ac:dyDescent="0.25"/>
+    <row r="351" x14ac:dyDescent="0.25"/>
+    <row r="352" x14ac:dyDescent="0.25"/>
+    <row r="353" x14ac:dyDescent="0.25"/>
+    <row r="354" x14ac:dyDescent="0.25"/>
+    <row r="355" x14ac:dyDescent="0.25"/>
+    <row r="356" x14ac:dyDescent="0.25"/>
+    <row r="357" x14ac:dyDescent="0.25"/>
+    <row r="358" x14ac:dyDescent="0.25"/>
+    <row r="359" x14ac:dyDescent="0.25"/>
+    <row r="360" x14ac:dyDescent="0.25"/>
+    <row r="361" x14ac:dyDescent="0.25"/>
+    <row r="362" x14ac:dyDescent="0.25"/>
+    <row r="363" x14ac:dyDescent="0.25"/>
+    <row r="364" x14ac:dyDescent="0.25"/>
+    <row r="365" x14ac:dyDescent="0.25"/>
+    <row r="366" x14ac:dyDescent="0.25"/>
+    <row r="367" x14ac:dyDescent="0.25"/>
+    <row r="368" x14ac:dyDescent="0.25"/>
+    <row r="369" x14ac:dyDescent="0.25"/>
+    <row r="370" x14ac:dyDescent="0.25"/>
+    <row r="371" x14ac:dyDescent="0.25"/>
+    <row r="372" x14ac:dyDescent="0.25"/>
+    <row r="373" x14ac:dyDescent="0.25"/>
+    <row r="374" x14ac:dyDescent="0.25"/>
+    <row r="375" x14ac:dyDescent="0.25"/>
+    <row r="376" x14ac:dyDescent="0.25"/>
+    <row r="377" x14ac:dyDescent="0.25"/>
+    <row r="378" x14ac:dyDescent="0.25"/>
+    <row r="379" x14ac:dyDescent="0.25"/>
+    <row r="380" x14ac:dyDescent="0.25"/>
+    <row r="381" x14ac:dyDescent="0.25"/>
+    <row r="382" x14ac:dyDescent="0.25"/>
+    <row r="383" x14ac:dyDescent="0.25"/>
+    <row r="384" x14ac:dyDescent="0.25"/>
+    <row r="385" x14ac:dyDescent="0.25"/>
+    <row r="386" x14ac:dyDescent="0.25"/>
+    <row r="387" x14ac:dyDescent="0.25"/>
+    <row r="388" x14ac:dyDescent="0.25"/>
+    <row r="389" x14ac:dyDescent="0.25"/>
+    <row r="390" x14ac:dyDescent="0.25"/>
+    <row r="391" x14ac:dyDescent="0.25"/>
+    <row r="392" x14ac:dyDescent="0.25"/>
+    <row r="393" x14ac:dyDescent="0.25"/>
+    <row r="394" x14ac:dyDescent="0.25"/>
+    <row r="395" x14ac:dyDescent="0.25"/>
+    <row r="396" x14ac:dyDescent="0.25"/>
+    <row r="397" x14ac:dyDescent="0.25"/>
+    <row r="398" x14ac:dyDescent="0.25"/>
+    <row r="399" x14ac:dyDescent="0.25"/>
+    <row r="400" x14ac:dyDescent="0.25"/>
+    <row r="401" x14ac:dyDescent="0.25"/>
+    <row r="402" x14ac:dyDescent="0.25"/>
+    <row r="403" x14ac:dyDescent="0.25"/>
+    <row r="404" x14ac:dyDescent="0.25"/>
+    <row r="405" x14ac:dyDescent="0.25"/>
+    <row r="406" x14ac:dyDescent="0.25"/>
+    <row r="407" x14ac:dyDescent="0.25"/>
+    <row r="408" x14ac:dyDescent="0.25"/>
+    <row r="409" x14ac:dyDescent="0.25"/>
+    <row r="410" x14ac:dyDescent="0.25"/>
+    <row r="411" x14ac:dyDescent="0.25"/>
+    <row r="412" x14ac:dyDescent="0.25"/>
+    <row r="413" x14ac:dyDescent="0.25"/>
+    <row r="414" x14ac:dyDescent="0.25"/>
+    <row r="415" x14ac:dyDescent="0.25"/>
+    <row r="416" x14ac:dyDescent="0.25"/>
+    <row r="417" x14ac:dyDescent="0.25"/>
+    <row r="418" x14ac:dyDescent="0.25"/>
+    <row r="419" x14ac:dyDescent="0.25"/>
+    <row r="420" x14ac:dyDescent="0.25"/>
+    <row r="421" x14ac:dyDescent="0.25"/>
+    <row r="422" x14ac:dyDescent="0.25"/>
+    <row r="423" x14ac:dyDescent="0.25"/>
+    <row r="424" x14ac:dyDescent="0.25"/>
+    <row r="425" x14ac:dyDescent="0.25"/>
+    <row r="426" x14ac:dyDescent="0.25"/>
+    <row r="427" x14ac:dyDescent="0.25"/>
+    <row r="428" x14ac:dyDescent="0.25"/>
+    <row r="429" x14ac:dyDescent="0.25"/>
+    <row r="430" x14ac:dyDescent="0.25"/>
+    <row r="431" x14ac:dyDescent="0.25"/>
+    <row r="432" x14ac:dyDescent="0.25"/>
+    <row r="433" x14ac:dyDescent="0.25"/>
+    <row r="434" x14ac:dyDescent="0.25"/>
+    <row r="435" x14ac:dyDescent="0.25"/>
+    <row r="436" x14ac:dyDescent="0.25"/>
+    <row r="437" x14ac:dyDescent="0.25"/>
+    <row r="438" x14ac:dyDescent="0.25"/>
+    <row r="439" x14ac:dyDescent="0.25"/>
+    <row r="440" x14ac:dyDescent="0.25"/>
+    <row r="441" x14ac:dyDescent="0.25"/>
+    <row r="442" x14ac:dyDescent="0.25"/>
+    <row r="443" x14ac:dyDescent="0.25"/>
+    <row r="444" x14ac:dyDescent="0.25"/>
+    <row r="445" x14ac:dyDescent="0.25"/>
+    <row r="446" x14ac:dyDescent="0.25"/>
+    <row r="447" x14ac:dyDescent="0.25"/>
+    <row r="448" x14ac:dyDescent="0.25"/>
+    <row r="449" x14ac:dyDescent="0.25"/>
+    <row r="450" x14ac:dyDescent="0.25"/>
+    <row r="451" x14ac:dyDescent="0.25"/>
+    <row r="452" x14ac:dyDescent="0.25"/>
+    <row r="453" x14ac:dyDescent="0.25"/>
+    <row r="454" x14ac:dyDescent="0.25"/>
+    <row r="455" x14ac:dyDescent="0.25"/>
+    <row r="456" x14ac:dyDescent="0.25"/>
+    <row r="457" x14ac:dyDescent="0.25"/>
+    <row r="458" x14ac:dyDescent="0.25"/>
+    <row r="459" x14ac:dyDescent="0.25"/>
+    <row r="460" x14ac:dyDescent="0.25"/>
+    <row r="461" x14ac:dyDescent="0.25"/>
+    <row r="462" x14ac:dyDescent="0.25"/>
+    <row r="463" x14ac:dyDescent="0.25"/>
+    <row r="464" x14ac:dyDescent="0.25"/>
+    <row r="465" x14ac:dyDescent="0.25"/>
+    <row r="466" x14ac:dyDescent="0.25"/>
+    <row r="467" x14ac:dyDescent="0.25"/>
+    <row r="468" x14ac:dyDescent="0.25"/>
+    <row r="469" x14ac:dyDescent="0.25"/>
+    <row r="470" x14ac:dyDescent="0.25"/>
+    <row r="471" x14ac:dyDescent="0.25"/>
+    <row r="472" x14ac:dyDescent="0.25"/>
+    <row r="473" x14ac:dyDescent="0.25"/>
+    <row r="474" x14ac:dyDescent="0.25"/>
+    <row r="475" x14ac:dyDescent="0.25"/>
+    <row r="476" x14ac:dyDescent="0.25"/>
+    <row r="477" x14ac:dyDescent="0.25"/>
+    <row r="478" x14ac:dyDescent="0.25"/>
+    <row r="479" x14ac:dyDescent="0.25"/>
+    <row r="480" x14ac:dyDescent="0.25"/>
+    <row r="481" x14ac:dyDescent="0.25"/>
+    <row r="482" x14ac:dyDescent="0.25"/>
+    <row r="483" x14ac:dyDescent="0.25"/>
+    <row r="484" x14ac:dyDescent="0.25"/>
+    <row r="485" x14ac:dyDescent="0.25"/>
+    <row r="486" x14ac:dyDescent="0.25"/>
+    <row r="487" x14ac:dyDescent="0.25"/>
+    <row r="488" x14ac:dyDescent="0.25"/>
+    <row r="489" x14ac:dyDescent="0.25"/>
+    <row r="490" x14ac:dyDescent="0.25"/>
+    <row r="491" x14ac:dyDescent="0.25"/>
+    <row r="492" x14ac:dyDescent="0.25"/>
+    <row r="493" x14ac:dyDescent="0.25"/>
+    <row r="494" x14ac:dyDescent="0.25"/>
+    <row r="495" x14ac:dyDescent="0.25"/>
+    <row r="496" x14ac:dyDescent="0.25"/>
+    <row r="497" x14ac:dyDescent="0.25"/>
+    <row r="498" x14ac:dyDescent="0.25"/>
+    <row r="499" x14ac:dyDescent="0.25"/>
+    <row r="500" x14ac:dyDescent="0.25"/>
+    <row r="501" x14ac:dyDescent="0.25"/>
+    <row r="502" x14ac:dyDescent="0.25"/>
+    <row r="503" x14ac:dyDescent="0.25"/>
+    <row r="504" x14ac:dyDescent="0.25"/>
+    <row r="505" x14ac:dyDescent="0.25"/>
+    <row r="506" x14ac:dyDescent="0.25"/>
+    <row r="507" x14ac:dyDescent="0.25"/>
+    <row r="508" x14ac:dyDescent="0.25"/>
+    <row r="509" x14ac:dyDescent="0.25"/>
+    <row r="510" x14ac:dyDescent="0.25"/>
+    <row r="511" x14ac:dyDescent="0.25"/>
+    <row r="512" x14ac:dyDescent="0.25"/>
+    <row r="513" x14ac:dyDescent="0.25"/>
+    <row r="514" x14ac:dyDescent="0.25"/>
+    <row r="515" x14ac:dyDescent="0.25"/>
+    <row r="516" x14ac:dyDescent="0.25"/>
+    <row r="517" x14ac:dyDescent="0.25"/>
+    <row r="518" x14ac:dyDescent="0.25"/>
+    <row r="519" x14ac:dyDescent="0.25"/>
+    <row r="520" x14ac:dyDescent="0.25"/>
+    <row r="521" x14ac:dyDescent="0.25"/>
+    <row r="522" x14ac:dyDescent="0.25"/>
+    <row r="523" x14ac:dyDescent="0.25"/>
+    <row r="524" x14ac:dyDescent="0.25"/>
+    <row r="525" x14ac:dyDescent="0.25"/>
+    <row r="526" x14ac:dyDescent="0.25"/>
+    <row r="527" x14ac:dyDescent="0.25"/>
+    <row r="528" x14ac:dyDescent="0.25"/>
+    <row r="529" x14ac:dyDescent="0.25"/>
+    <row r="530" x14ac:dyDescent="0.25"/>
+    <row r="531" x14ac:dyDescent="0.25"/>
+    <row r="532" x14ac:dyDescent="0.25"/>
+    <row r="533" x14ac:dyDescent="0.25"/>
+    <row r="534" x14ac:dyDescent="0.25"/>
+    <row r="535" x14ac:dyDescent="0.25"/>
+    <row r="536" x14ac:dyDescent="0.25"/>
+    <row r="537" x14ac:dyDescent="0.25"/>
+    <row r="538" x14ac:dyDescent="0.25"/>
+    <row r="539" x14ac:dyDescent="0.25"/>
+    <row r="540" x14ac:dyDescent="0.25"/>
+    <row r="541" x14ac:dyDescent="0.25"/>
+    <row r="542" x14ac:dyDescent="0.25"/>
+    <row r="543" x14ac:dyDescent="0.25"/>
+    <row r="544" x14ac:dyDescent="0.25"/>
+    <row r="545" x14ac:dyDescent="0.25"/>
+    <row r="546" x14ac:dyDescent="0.25"/>
+    <row r="547" x14ac:dyDescent="0.25"/>
+    <row r="548" x14ac:dyDescent="0.25"/>
+    <row r="549" x14ac:dyDescent="0.25"/>
+    <row r="550" x14ac:dyDescent="0.25"/>
+    <row r="551" x14ac:dyDescent="0.25"/>
+    <row r="552" x14ac:dyDescent="0.25"/>
+    <row r="553" x14ac:dyDescent="0.25"/>
+    <row r="554" x14ac:dyDescent="0.25"/>
+    <row r="555" x14ac:dyDescent="0.25"/>
+    <row r="556" x14ac:dyDescent="0.25"/>
+    <row r="557" x14ac:dyDescent="0.25"/>
+    <row r="558" x14ac:dyDescent="0.25"/>
+    <row r="559" x14ac:dyDescent="0.25"/>
+    <row r="560" x14ac:dyDescent="0.25"/>
+    <row r="561" x14ac:dyDescent="0.25"/>
+    <row r="562" x14ac:dyDescent="0.25"/>
+    <row r="563" x14ac:dyDescent="0.25"/>
+    <row r="564" x14ac:dyDescent="0.25"/>
+    <row r="565" x14ac:dyDescent="0.25"/>
+    <row r="566" x14ac:dyDescent="0.25"/>
+    <row r="567" x14ac:dyDescent="0.25"/>
+    <row r="568" x14ac:dyDescent="0.25"/>
+    <row r="569" x14ac:dyDescent="0.25"/>
+    <row r="570" x14ac:dyDescent="0.25"/>
+    <row r="571" x14ac:dyDescent="0.25"/>
+    <row r="572" x14ac:dyDescent="0.25"/>
+    <row r="573" x14ac:dyDescent="0.25"/>
+    <row r="574" x14ac:dyDescent="0.25"/>
+    <row r="575" x14ac:dyDescent="0.25"/>
+    <row r="576" x14ac:dyDescent="0.25"/>
+    <row r="577" x14ac:dyDescent="0.25"/>
+    <row r="578" x14ac:dyDescent="0.25"/>
+    <row r="579" x14ac:dyDescent="0.25"/>
+    <row r="580" x14ac:dyDescent="0.25"/>
+    <row r="581" x14ac:dyDescent="0.25"/>
+    <row r="582" x14ac:dyDescent="0.25"/>
+    <row r="583" x14ac:dyDescent="0.25"/>
+    <row r="584" x14ac:dyDescent="0.25"/>
+    <row r="585" x14ac:dyDescent="0.25"/>
+    <row r="586" x14ac:dyDescent="0.25"/>
+    <row r="587" x14ac:dyDescent="0.25"/>
+    <row r="588" x14ac:dyDescent="0.25"/>
+    <row r="589" x14ac:dyDescent="0.25"/>
+    <row r="590" x14ac:dyDescent="0.25"/>
+    <row r="591" x14ac:dyDescent="0.25"/>
+    <row r="592" x14ac:dyDescent="0.25"/>
+    <row r="593" x14ac:dyDescent="0.25"/>
+    <row r="594" x14ac:dyDescent="0.25"/>
+    <row r="595" x14ac:dyDescent="0.25"/>
+    <row r="596" x14ac:dyDescent="0.25"/>
+    <row r="597" x14ac:dyDescent="0.25"/>
+    <row r="598" x14ac:dyDescent="0.25"/>
+    <row r="599" x14ac:dyDescent="0.25"/>
+    <row r="600" x14ac:dyDescent="0.25"/>
+    <row r="601" x14ac:dyDescent="0.25"/>
+    <row r="602" x14ac:dyDescent="0.25"/>
+    <row r="603" x14ac:dyDescent="0.25"/>
+    <row r="604" x14ac:dyDescent="0.25"/>
+    <row r="605" x14ac:dyDescent="0.25"/>
+    <row r="606" x14ac:dyDescent="0.25"/>
+    <row r="607" x14ac:dyDescent="0.25"/>
+    <row r="608" x14ac:dyDescent="0.25"/>
+    <row r="609" x14ac:dyDescent="0.25"/>
+    <row r="610" x14ac:dyDescent="0.25"/>
+    <row r="611" x14ac:dyDescent="0.25"/>
+    <row r="612" x14ac:dyDescent="0.25"/>
+    <row r="613" x14ac:dyDescent="0.25"/>
+    <row r="614" x14ac:dyDescent="0.25"/>
+    <row r="615" x14ac:dyDescent="0.25"/>
+    <row r="616" x14ac:dyDescent="0.25"/>
+    <row r="617" x14ac:dyDescent="0.25"/>
+    <row r="618" x14ac:dyDescent="0.25"/>
+    <row r="619" x14ac:dyDescent="0.25"/>
+    <row r="620" x14ac:dyDescent="0.25"/>
+    <row r="621" x14ac:dyDescent="0.25"/>
+    <row r="622" x14ac:dyDescent="0.25"/>
+    <row r="623" x14ac:dyDescent="0.25"/>
+    <row r="624" x14ac:dyDescent="0.25"/>
+    <row r="625" x14ac:dyDescent="0.25"/>
+    <row r="626" x14ac:dyDescent="0.25"/>
+    <row r="627" x14ac:dyDescent="0.25"/>
+    <row r="628" x14ac:dyDescent="0.25"/>
+    <row r="629" x14ac:dyDescent="0.25"/>
+    <row r="630" x14ac:dyDescent="0.25"/>
+    <row r="631" x14ac:dyDescent="0.25"/>
+    <row r="632" x14ac:dyDescent="0.25"/>
+    <row r="633" x14ac:dyDescent="0.25"/>
+    <row r="634" x14ac:dyDescent="0.25"/>
+    <row r="635" x14ac:dyDescent="0.25"/>
+    <row r="636" x14ac:dyDescent="0.25"/>
+    <row r="637" x14ac:dyDescent="0.25"/>
+    <row r="638" x14ac:dyDescent="0.25"/>
+    <row r="639" x14ac:dyDescent="0.25"/>
+    <row r="640" x14ac:dyDescent="0.25"/>
+    <row r="641" x14ac:dyDescent="0.25"/>
+    <row r="642" x14ac:dyDescent="0.25"/>
+    <row r="643" x14ac:dyDescent="0.25"/>
+    <row r="644" x14ac:dyDescent="0.25"/>
+    <row r="645" x14ac:dyDescent="0.25"/>
+    <row r="646" x14ac:dyDescent="0.25"/>
+    <row r="647" x14ac:dyDescent="0.25"/>
+    <row r="648" x14ac:dyDescent="0.25"/>
+    <row r="649" x14ac:dyDescent="0.25"/>
+    <row r="650" x14ac:dyDescent="0.25"/>
+    <row r="651" x14ac:dyDescent="0.25"/>
+    <row r="652" x14ac:dyDescent="0.25"/>
+    <row r="653" x14ac:dyDescent="0.25"/>
+    <row r="654" x14ac:dyDescent="0.25"/>
+    <row r="655" x14ac:dyDescent="0.25"/>
+    <row r="656" x14ac:dyDescent="0.25"/>
+    <row r="657" x14ac:dyDescent="0.25"/>
+    <row r="658" x14ac:dyDescent="0.25"/>
+    <row r="659" x14ac:dyDescent="0.25"/>
+    <row r="660" x14ac:dyDescent="0.25"/>
+    <row r="661" x14ac:dyDescent="0.25"/>
+    <row r="662" x14ac:dyDescent="0.25"/>
+    <row r="663" x14ac:dyDescent="0.25"/>
+    <row r="664" x14ac:dyDescent="0.25"/>
+    <row r="665" x14ac:dyDescent="0.25"/>
+    <row r="666" x14ac:dyDescent="0.25"/>
+    <row r="667" x14ac:dyDescent="0.25"/>
+    <row r="668" x14ac:dyDescent="0.25"/>
+    <row r="669" x14ac:dyDescent="0.25"/>
+    <row r="670" x14ac:dyDescent="0.25"/>
+    <row r="671" x14ac:dyDescent="0.25"/>
+    <row r="672" x14ac:dyDescent="0.25"/>
+    <row r="673" x14ac:dyDescent="0.25"/>
+    <row r="674" x14ac:dyDescent="0.25"/>
+    <row r="675" x14ac:dyDescent="0.25"/>
+    <row r="676" x14ac:dyDescent="0.25"/>
+    <row r="677" x14ac:dyDescent="0.25"/>
+    <row r="678" x14ac:dyDescent="0.25"/>
+    <row r="679" x14ac:dyDescent="0.25"/>
+    <row r="680" x14ac:dyDescent="0.25"/>
+    <row r="681" x14ac:dyDescent="0.25"/>
+    <row r="682" x14ac:dyDescent="0.25"/>
+    <row r="683" x14ac:dyDescent="0.25"/>
+    <row r="684" x14ac:dyDescent="0.25"/>
+    <row r="685" x14ac:dyDescent="0.25"/>
+    <row r="686" x14ac:dyDescent="0.25"/>
+    <row r="687" x14ac:dyDescent="0.25"/>
+    <row r="688" x14ac:dyDescent="0.25"/>
+    <row r="689" x14ac:dyDescent="0.25"/>
+    <row r="690" x14ac:dyDescent="0.25"/>
+    <row r="691" x14ac:dyDescent="0.25"/>
+    <row r="692" x14ac:dyDescent="0.25"/>
+    <row r="693" x14ac:dyDescent="0.25"/>
+    <row r="694" x14ac:dyDescent="0.25"/>
+    <row r="695" x14ac:dyDescent="0.25"/>
+    <row r="696" x14ac:dyDescent="0.25"/>
+    <row r="697" x14ac:dyDescent="0.25"/>
+    <row r="698" x14ac:dyDescent="0.25"/>
+    <row r="699" x14ac:dyDescent="0.25"/>
+    <row r="700" x14ac:dyDescent="0.25"/>
+    <row r="701" x14ac:dyDescent="0.25"/>
+    <row r="702" x14ac:dyDescent="0.25"/>
+    <row r="703" x14ac:dyDescent="0.25"/>
+    <row r="704" x14ac:dyDescent="0.25"/>
+    <row r="705" x14ac:dyDescent="0.25"/>
+    <row r="706" x14ac:dyDescent="0.25"/>
+    <row r="707" x14ac:dyDescent="0.25"/>
+    <row r="708" x14ac:dyDescent="0.25"/>
+    <row r="709" x14ac:dyDescent="0.25"/>
+    <row r="710" x14ac:dyDescent="0.25"/>
+    <row r="711" x14ac:dyDescent="0.25"/>
+    <row r="712" x14ac:dyDescent="0.25"/>
+    <row r="713" x14ac:dyDescent="0.25"/>
+    <row r="714" x14ac:dyDescent="0.25"/>
+    <row r="715" x14ac:dyDescent="0.25"/>
+    <row r="716" x14ac:dyDescent="0.25"/>
+    <row r="717" x14ac:dyDescent="0.25"/>
+    <row r="718" x14ac:dyDescent="0.25"/>
+    <row r="719" x14ac:dyDescent="0.25"/>
+    <row r="720" x14ac:dyDescent="0.25"/>
+    <row r="721" x14ac:dyDescent="0.25"/>
+    <row r="722" x14ac:dyDescent="0.25"/>
+    <row r="723" x14ac:dyDescent="0.25"/>
+    <row r="724" x14ac:dyDescent="0.25"/>
+    <row r="725" x14ac:dyDescent="0.25"/>
+    <row r="726" x14ac:dyDescent="0.25"/>
+    <row r="727" x14ac:dyDescent="0.25"/>
+    <row r="728" x14ac:dyDescent="0.25"/>
+    <row r="729" x14ac:dyDescent="0.25"/>
+    <row r="730" x14ac:dyDescent="0.25"/>
+    <row r="731" x14ac:dyDescent="0.25"/>
+    <row r="732" x14ac:dyDescent="0.25"/>
+    <row r="733" x14ac:dyDescent="0.25"/>
+    <row r="734" x14ac:dyDescent="0.25"/>
+    <row r="735" x14ac:dyDescent="0.25"/>
+    <row r="736" x14ac:dyDescent="0.25"/>
+    <row r="737" x14ac:dyDescent="0.25"/>
+    <row r="738" x14ac:dyDescent="0.25"/>
+    <row r="739" x14ac:dyDescent="0.25"/>
+    <row r="740" x14ac:dyDescent="0.25"/>
+    <row r="741" x14ac:dyDescent="0.25"/>
+    <row r="742" x14ac:dyDescent="0.25"/>
+    <row r="743" x14ac:dyDescent="0.25"/>
+    <row r="744" x14ac:dyDescent="0.25"/>
+    <row r="745" x14ac:dyDescent="0.25"/>
+    <row r="746" x14ac:dyDescent="0.25"/>
+    <row r="747" x14ac:dyDescent="0.25"/>
+    <row r="748" x14ac:dyDescent="0.25"/>
+    <row r="749" x14ac:dyDescent="0.25"/>
+    <row r="750" x14ac:dyDescent="0.25"/>
+    <row r="751" x14ac:dyDescent="0.25"/>
+    <row r="752" x14ac:dyDescent="0.25"/>
+    <row r="753" x14ac:dyDescent="0.25"/>
+    <row r="754" x14ac:dyDescent="0.25"/>
+    <row r="755" x14ac:dyDescent="0.25"/>
+    <row r="756" x14ac:dyDescent="0.25"/>
+    <row r="757" x14ac:dyDescent="0.25"/>
+    <row r="758" x14ac:dyDescent="0.25"/>
+    <row r="759" x14ac:dyDescent="0.25"/>
+    <row r="760" x14ac:dyDescent="0.25"/>
+    <row r="761" x14ac:dyDescent="0.25"/>
+    <row r="762" x14ac:dyDescent="0.25"/>
+    <row r="763" x14ac:dyDescent="0.25"/>
+    <row r="764" x14ac:dyDescent="0.25"/>
+    <row r="765" x14ac:dyDescent="0.25"/>
+    <row r="766" x14ac:dyDescent="0.25"/>
+    <row r="767" x14ac:dyDescent="0.25"/>
+    <row r="768" x14ac:dyDescent="0.25"/>
+    <row r="769" x14ac:dyDescent="0.25"/>
+    <row r="770" x14ac:dyDescent="0.25"/>
+    <row r="771" x14ac:dyDescent="0.25"/>
+    <row r="772" x14ac:dyDescent="0.25"/>
+    <row r="773" x14ac:dyDescent="0.25"/>
+    <row r="774" x14ac:dyDescent="0.25"/>
+    <row r="775" x14ac:dyDescent="0.25"/>
+    <row r="776" x14ac:dyDescent="0.25"/>
+    <row r="777" x14ac:dyDescent="0.25"/>
+    <row r="778" x14ac:dyDescent="0.25"/>
+    <row r="779" x14ac:dyDescent="0.25"/>
+    <row r="780" x14ac:dyDescent="0.25"/>
+    <row r="781" x14ac:dyDescent="0.25"/>
+    <row r="782" x14ac:dyDescent="0.25"/>
+    <row r="783" x14ac:dyDescent="0.25"/>
+    <row r="784" x14ac:dyDescent="0.25"/>
+    <row r="785" x14ac:dyDescent="0.25"/>
+    <row r="786" x14ac:dyDescent="0.25"/>
+    <row r="787" x14ac:dyDescent="0.25"/>
+    <row r="788" x14ac:dyDescent="0.25"/>
+    <row r="789" x14ac:dyDescent="0.25"/>
+    <row r="790" x14ac:dyDescent="0.25"/>
+    <row r="791" x14ac:dyDescent="0.25"/>
+    <row r="792" x14ac:dyDescent="0.25"/>
+    <row r="793" x14ac:dyDescent="0.25"/>
+    <row r="794" x14ac:dyDescent="0.25"/>
+    <row r="795" x14ac:dyDescent="0.25"/>
+    <row r="796" x14ac:dyDescent="0.25"/>
+    <row r="797" x14ac:dyDescent="0.25"/>
+    <row r="798" x14ac:dyDescent="0.25"/>
+    <row r="799" x14ac:dyDescent="0.25"/>
+    <row r="800" x14ac:dyDescent="0.25"/>
+    <row r="801" x14ac:dyDescent="0.25"/>
+    <row r="802" x14ac:dyDescent="0.25"/>
+    <row r="803" x14ac:dyDescent="0.25"/>
+    <row r="804" x14ac:dyDescent="0.25"/>
+    <row r="805" x14ac:dyDescent="0.25"/>
+    <row r="806" x14ac:dyDescent="0.25"/>
+    <row r="807" x14ac:dyDescent="0.25"/>
+    <row r="808" x14ac:dyDescent="0.25"/>
+    <row r="809" x14ac:dyDescent="0.25"/>
+    <row r="810" x14ac:dyDescent="0.25"/>
+    <row r="811" x14ac:dyDescent="0.25"/>
+    <row r="812" x14ac:dyDescent="0.25"/>
+    <row r="813" x14ac:dyDescent="0.25"/>
+    <row r="814" x14ac:dyDescent="0.25"/>
+    <row r="815" x14ac:dyDescent="0.25"/>
+    <row r="816" x14ac:dyDescent="0.25"/>
+    <row r="817" x14ac:dyDescent="0.25"/>
+    <row r="818" x14ac:dyDescent="0.25"/>
+    <row r="819" x14ac:dyDescent="0.25"/>
+    <row r="820" x14ac:dyDescent="0.25"/>
+    <row r="821" x14ac:dyDescent="0.25"/>
+    <row r="822" x14ac:dyDescent="0.25"/>
+    <row r="823" x14ac:dyDescent="0.25"/>
+    <row r="824" x14ac:dyDescent="0.25"/>
+    <row r="825" x14ac:dyDescent="0.25"/>
+    <row r="826" x14ac:dyDescent="0.25"/>
+    <row r="827" x14ac:dyDescent="0.25"/>
+    <row r="828" x14ac:dyDescent="0.25"/>
+    <row r="829" x14ac:dyDescent="0.25"/>
+    <row r="830" x14ac:dyDescent="0.25"/>
+    <row r="831" x14ac:dyDescent="0.25"/>
+    <row r="832" x14ac:dyDescent="0.25"/>
+    <row r="833" x14ac:dyDescent="0.25"/>
+    <row r="834" x14ac:dyDescent="0.25"/>
+    <row r="835" x14ac:dyDescent="0.25"/>
+    <row r="836" x14ac:dyDescent="0.25"/>
+    <row r="837" x14ac:dyDescent="0.25"/>
+    <row r="838" x14ac:dyDescent="0.25"/>
+    <row r="839" x14ac:dyDescent="0.25"/>
+    <row r="840" x14ac:dyDescent="0.25"/>
+    <row r="841" x14ac:dyDescent="0.25"/>
+    <row r="842" x14ac:dyDescent="0.25"/>
+    <row r="843" x14ac:dyDescent="0.25"/>
+    <row r="844" x14ac:dyDescent="0.25"/>
+    <row r="845" x14ac:dyDescent="0.25"/>
+    <row r="846" x14ac:dyDescent="0.25"/>
+    <row r="847" x14ac:dyDescent="0.25"/>
+    <row r="848" x14ac:dyDescent="0.25"/>
+    <row r="849" x14ac:dyDescent="0.25"/>
+    <row r="850" x14ac:dyDescent="0.25"/>
+    <row r="851" x14ac:dyDescent="0.25"/>
+    <row r="852" x14ac:dyDescent="0.25"/>
+    <row r="853" x14ac:dyDescent="0.25"/>
+    <row r="854" x14ac:dyDescent="0.25"/>
+    <row r="855" x14ac:dyDescent="0.25"/>
+    <row r="856" x14ac:dyDescent="0.25"/>
+    <row r="857" x14ac:dyDescent="0.25"/>
+    <row r="858" x14ac:dyDescent="0.25"/>
+    <row r="859" x14ac:dyDescent="0.25"/>
+    <row r="860" x14ac:dyDescent="0.25"/>
+    <row r="861" x14ac:dyDescent="0.25"/>
+    <row r="862" x14ac:dyDescent="0.25"/>
+    <row r="863" x14ac:dyDescent="0.25"/>
+    <row r="864" x14ac:dyDescent="0.25"/>
+    <row r="865" x14ac:dyDescent="0.25"/>
+    <row r="866" x14ac:dyDescent="0.25"/>
+    <row r="867" x14ac:dyDescent="0.25"/>
+    <row r="868" x14ac:dyDescent="0.25"/>
+    <row r="869" x14ac:dyDescent="0.25"/>
+    <row r="870" x14ac:dyDescent="0.25"/>
+    <row r="871" x14ac:dyDescent="0.25"/>
+    <row r="872" x14ac:dyDescent="0.25"/>
+    <row r="873" x14ac:dyDescent="0.25"/>
+    <row r="874" x14ac:dyDescent="0.25"/>
+    <row r="875" x14ac:dyDescent="0.25"/>
+    <row r="876" x14ac:dyDescent="0.25"/>
+    <row r="877" x14ac:dyDescent="0.25"/>
+    <row r="878" x14ac:dyDescent="0.25"/>
+    <row r="879" x14ac:dyDescent="0.25"/>
+    <row r="880" x14ac:dyDescent="0.25"/>
+    <row r="881" x14ac:dyDescent="0.25"/>
+    <row r="882" x14ac:dyDescent="0.25"/>
+    <row r="883" x14ac:dyDescent="0.25"/>
+    <row r="884" x14ac:dyDescent="0.25"/>
+    <row r="885" x14ac:dyDescent="0.25"/>
+    <row r="886" x14ac:dyDescent="0.25"/>
+    <row r="887" x14ac:dyDescent="0.25"/>
+    <row r="888" x14ac:dyDescent="0.25"/>
+    <row r="889" x14ac:dyDescent="0.25"/>
+    <row r="890" x14ac:dyDescent="0.25"/>
+    <row r="891" x14ac:dyDescent="0.25"/>
+    <row r="892" x14ac:dyDescent="0.25"/>
+    <row r="893" x14ac:dyDescent="0.25"/>
+    <row r="894" x14ac:dyDescent="0.25"/>
+    <row r="895" x14ac:dyDescent="0.25"/>
+    <row r="896" x14ac:dyDescent="0.25"/>
+    <row r="897" x14ac:dyDescent="0.25"/>
+    <row r="898" x14ac:dyDescent="0.25"/>
+    <row r="899" x14ac:dyDescent="0.25"/>
+    <row r="900" x14ac:dyDescent="0.25"/>
+    <row r="901" x14ac:dyDescent="0.25"/>
+    <row r="902" x14ac:dyDescent="0.25"/>
+    <row r="903" x14ac:dyDescent="0.25"/>
+    <row r="904" x14ac:dyDescent="0.25"/>
+    <row r="905" x14ac:dyDescent="0.25"/>
+    <row r="906" x14ac:dyDescent="0.25"/>
+    <row r="907" x14ac:dyDescent="0.25"/>
+    <row r="908" x14ac:dyDescent="0.25"/>
+    <row r="909" x14ac:dyDescent="0.25"/>
+    <row r="910" x14ac:dyDescent="0.25"/>
+    <row r="911" x14ac:dyDescent="0.25"/>
+    <row r="912" x14ac:dyDescent="0.25"/>
+    <row r="913" x14ac:dyDescent="0.25"/>
+    <row r="914" x14ac:dyDescent="0.25"/>
+    <row r="915" x14ac:dyDescent="0.25"/>
+    <row r="916" x14ac:dyDescent="0.25"/>
+    <row r="917" x14ac:dyDescent="0.25"/>
+    <row r="918" x14ac:dyDescent="0.25"/>
+    <row r="919" x14ac:dyDescent="0.25"/>
+    <row r="920" x14ac:dyDescent="0.25"/>
+    <row r="921" x14ac:dyDescent="0.25"/>
+    <row r="922" x14ac:dyDescent="0.25"/>
+    <row r="923" x14ac:dyDescent="0.25"/>
+    <row r="924" x14ac:dyDescent="0.25"/>
+    <row r="925" x14ac:dyDescent="0.25"/>
+    <row r="926" x14ac:dyDescent="0.25"/>
+    <row r="927" x14ac:dyDescent="0.25"/>
+    <row r="928" x14ac:dyDescent="0.25"/>
+    <row r="929" x14ac:dyDescent="0.25"/>
+    <row r="930" x14ac:dyDescent="0.25"/>
+    <row r="931" x14ac:dyDescent="0.25"/>
+    <row r="932" x14ac:dyDescent="0.25"/>
+    <row r="933" x14ac:dyDescent="0.25"/>
+    <row r="934" x14ac:dyDescent="0.25"/>
+    <row r="935" x14ac:dyDescent="0.25"/>
+    <row r="936" x14ac:dyDescent="0.25"/>
+    <row r="937" x14ac:dyDescent="0.25"/>
+    <row r="938" x14ac:dyDescent="0.25"/>
+    <row r="939" x14ac:dyDescent="0.25"/>
+    <row r="940" x14ac:dyDescent="0.25"/>
+    <row r="941" x14ac:dyDescent="0.25"/>
+    <row r="942" x14ac:dyDescent="0.25"/>
+    <row r="943" x14ac:dyDescent="0.25"/>
+    <row r="944" x14ac:dyDescent="0.25"/>
+    <row r="945" x14ac:dyDescent="0.25"/>
+    <row r="946" x14ac:dyDescent="0.25"/>
+    <row r="947" x14ac:dyDescent="0.25"/>
+    <row r="948" x14ac:dyDescent="0.25"/>
+    <row r="949" x14ac:dyDescent="0.25"/>
+    <row r="950" x14ac:dyDescent="0.25"/>
+    <row r="951" x14ac:dyDescent="0.25"/>
+    <row r="952" x14ac:dyDescent="0.25"/>
+    <row r="953" x14ac:dyDescent="0.25"/>
+    <row r="954" x14ac:dyDescent="0.25"/>
+    <row r="955" x14ac:dyDescent="0.25"/>
+    <row r="956" x14ac:dyDescent="0.25"/>
+    <row r="957" x14ac:dyDescent="0.25"/>
+    <row r="958" x14ac:dyDescent="0.25"/>
+    <row r="959" x14ac:dyDescent="0.25"/>
+    <row r="960" x14ac:dyDescent="0.25"/>
+    <row r="961" x14ac:dyDescent="0.25"/>
+    <row r="962" x14ac:dyDescent="0.25"/>
+    <row r="963" x14ac:dyDescent="0.25"/>
+    <row r="964" x14ac:dyDescent="0.25"/>
+    <row r="965" x14ac:dyDescent="0.25"/>
+    <row r="966" x14ac:dyDescent="0.25"/>
+    <row r="967" x14ac:dyDescent="0.25"/>
+    <row r="968" x14ac:dyDescent="0.25"/>
+    <row r="969" x14ac:dyDescent="0.25"/>
+    <row r="970" x14ac:dyDescent="0.25"/>
+    <row r="971" x14ac:dyDescent="0.25"/>
+    <row r="972" x14ac:dyDescent="0.25"/>
+    <row r="973" x14ac:dyDescent="0.25"/>
+    <row r="974" x14ac:dyDescent="0.25"/>
+    <row r="975" x14ac:dyDescent="0.25"/>
+    <row r="976" x14ac:dyDescent="0.25"/>
+    <row r="977" x14ac:dyDescent="0.25"/>
+    <row r="978" x14ac:dyDescent="0.25"/>
+    <row r="979" x14ac:dyDescent="0.25"/>
+    <row r="980" x14ac:dyDescent="0.25"/>
+    <row r="981" x14ac:dyDescent="0.25"/>
+    <row r="982" x14ac:dyDescent="0.25"/>
+    <row r="983" x14ac:dyDescent="0.25"/>
+    <row r="984" x14ac:dyDescent="0.25"/>
+    <row r="985" x14ac:dyDescent="0.25"/>
+    <row r="986" x14ac:dyDescent="0.25"/>
+    <row r="987" x14ac:dyDescent="0.25"/>
+    <row r="988" x14ac:dyDescent="0.25"/>
+    <row r="989" x14ac:dyDescent="0.25"/>
+    <row r="990" x14ac:dyDescent="0.25"/>
+    <row r="991" x14ac:dyDescent="0.25"/>
+    <row r="992" x14ac:dyDescent="0.25"/>
+    <row r="993" x14ac:dyDescent="0.25"/>
+    <row r="994" x14ac:dyDescent="0.25"/>
+    <row r="995" x14ac:dyDescent="0.25"/>
+    <row r="996" x14ac:dyDescent="0.25"/>
+    <row r="997" x14ac:dyDescent="0.25"/>
+    <row r="998" x14ac:dyDescent="0.25"/>
+    <row r="999" x14ac:dyDescent="0.25"/>
+    <row r="1000" x14ac:dyDescent="0.25"/>
+    <row r="1001" x14ac:dyDescent="0.25"/>
+    <row r="1002" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <sheetProtection algorithmName="SHA-512" hashValue="NWvmAxafY4jfT8aBHu1TWHLFaWx8HkoScTmTU/1pfhotZbrNqe0bKSXWLkFYuKxQ3fHwb+DuQyDioH5G6OML/w==" saltValue="njLHL+GNVflsqimk43jgWw==" spinCount="100000" sheet="1" autoFilter="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A3:O1048576" name="Диапазон1"/>
+  </protectedRanges>
+  <mergeCells count="13">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:N1"/>
@@ -952,6 +1930,97 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <conditionalFormatting sqref="A3:O1048576">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>AND(ISBLANK($B3),ISBLANK($C3),ISBLANK($D3),ISBLANK($E3),ISBLANK($F3),ISBLANK($G3),ISBLANK($H3),ISBLANK($I3),ISBLANK($J3),ISBLANK($K3),ISBLANK($L3),ISBLANK($M3),ISBLANK($N3),ISBLANK($O3))=TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(ISBLANK(J3),NOT(ISBLANK(I3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I1048576">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>OR(AND(NOT(ISBLANK(J3)),NOT(ISNUMBER(I3))),AND(NOT(ISBLANK(J3)),I3&lt;=0),AND(NOT(ISBLANK(J3)),ISBLANK(I3)))=TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D1048576">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>OR(D3&lt;0,NOT(ISNUMBER(D3)))=TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B1048576">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>LEN(B3)&gt;255</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F1048576">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND(NOT(ISNUMBER(F3)),F3&lt;&gt;"ASAP")=TRUE()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(ISNUMBER(F3),F3&lt;=TODAY())=TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:H1048576">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>ISBLANK(B3)=TRUE()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations xWindow="82" yWindow="447" count="19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Валюта НМЦ" prompt="Выберите валюту начальной максимальной цены из списка, если указали НМЦ или оставьте пустым, если НМЦ не указана" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>"RUB,,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Условия оплаты" prompt="Выберите условия оплаты из списка_x000a_(поле обязательно для заполнения)" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>"30 дней по факту поставки,60 дней по факту поставки,90 дней по факту поставки"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="НМЦ" prompt="Укажите начальную максимальную цену, если она известна_x000a_" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость разработки РКД" prompt="Выберите &quot;Да&quot; из списка, если требуется, или оставьте пустым, если не требуется" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"Да"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ШМР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение шефмонтажных работ или оставьте пустым, если не требуется" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"Да"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ПНР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение пуско-наладочных работ или оставьте пустым, если не требуется" sqref="M3:M1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+      <formula1>"Да"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N1097:N1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Поле для примечаний" prompt="В данном поле укажите любые дополнительные требования, комментарии и примечания" sqref="O3:O1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Базис поставки" prompt="В данном поле укажите, куда именно нужно доставить запрашиваемую позицию_x000a_(поле обязательно для заполнения)" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР" sqref="D3:D1048543" xr:uid="{00000000-0002-0000-0000-000009000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Срок поставки" prompt="Укажите срок, когда требуется доставка МТР в формате ДД.ММ.ГГГГ, если требуется как можно скорее - укажите ASAP_x000a_(поле обязательно для заполнения)" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции, поле опциональное" sqref="A3:A1048543 A1048545:A1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Наименование МТР" prompt="Укажите здесь наименование требуемого вам МТР_x000a_(поле обязательно для заполнения)" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Документ" prompt="Укажите здесь данные о документе в соответствии с которым должен быть изготовлен требуемый МТР, например ГОСТ, ТУ производителя, или наименование опросного листа_x000a_(поле обязательно для заполнения)" sqref="C3:C1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+      <formula1>1</formula1>
+      <formula2>255</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции" sqref="A1048544" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР_x000a_(поле обязательно для заполнения)" sqref="D1048544:D1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E3:E1048543" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>"ММ,СМ,ДМ,М,КМ,ММ2,СМ2,ДМ2,М2,КМ2,ММ3,СМ3,МЛ,ДМ3,Л,М3,МГ,Г,КГ,Т,БОБ,ЛИСТ,100 ЛИСТ,ИЗД,НАБОР,ПАР,РУЛ,ШТ,ШТ,ЯЩ,ГОЛ,КОМПЛ,АМПУЛ,ФЛАК"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1048544:E1048576" xr:uid="{00000000-0002-0000-0000-000011000000}">
+      <formula1>"М2,СМ3,МЛ,Л,М3,МГ,Г,КГ,Т,ИЗД,ПАР,ШТ,КОМПЛ"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N3:N1096" xr:uid="{00000000-0002-0000-0000-000012000000}">
+      <formula1>"Да"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fedor\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD06093-154A-4165-A0F2-3B0DFB71DE4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C66889-465F-4918-BE57-50AFF6C349F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2M+vjSeYIG9WMQQceLN73IvvE2iQJy7azehpLaXuxhPlrYmB8XKpvyrzfUVjxl6dLdOhKci2TGuiSZIAnECV3Q==" workbookSaltValue="/F38On1GzmT1UNFTdEW7rA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заявка" sheetId="1" r:id="rId1"/>
@@ -1911,7 +1911,7 @@
     <row r="1001" x14ac:dyDescent="0.25"/>
     <row r="1002" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="NWvmAxafY4jfT8aBHu1TWHLFaWx8HkoScTmTU/1pfhotZbrNqe0bKSXWLkFYuKxQ3fHwb+DuQyDioH5G6OML/w==" saltValue="njLHL+GNVflsqimk43jgWw==" spinCount="100000" sheet="1" autoFilter="0"/>
+  <sheetProtection autoFilter="0"/>
   <protectedRanges>
     <protectedRange sqref="A3:O1048576" name="Диапазон1"/>
   </protectedRanges>
@@ -1968,7 +1968,7 @@
       <formula>ISBLANK(B3)=TRUE()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="82" yWindow="447" count="19">
+  <dataValidations xWindow="82" yWindow="447" count="20">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Валюта НМЦ" prompt="Выберите валюту начальной максимальной цены из списка, если указали НМЦ или оставьте пустым, если НМЦ не указана" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"RUB,,"</formula1>
     </dataValidation>
@@ -2011,8 +2011,8 @@
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР_x000a_(поле обязательно для заполнения)" sqref="D1048544:D1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E3:E1048543" xr:uid="{00000000-0002-0000-0000-000010000000}">
-      <formula1>"ММ,СМ,ДМ,М,КМ,ММ2,СМ2,ДМ2,М2,КМ2,ММ3,СМ3,МЛ,ДМ3,Л,М3,МГ,Г,КГ,Т,БОБ,ЛИСТ,100 ЛИСТ,ИЗД,НАБОР,ПАР,РУЛ,ШТ,ШТ,ЯЩ,ГОЛ,КОМПЛ,АМПУЛ,ФЛАК"</formula1>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1003:E1048543" xr:uid="{00000000-0002-0000-0000-000010000000}">
+      <formula1>"ШТ,КОМПЛ,Т,М,КМ,М3,М2,Л,КГ,ИЗД"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1048544:E1048576" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>"М2,СМ3,МЛ,Л,М3,МГ,Г,КГ,Т,ИЗД,ПАР,ШТ,КОМПЛ"</formula1>
@@ -2020,6 +2020,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N3:N1096" xr:uid="{00000000-0002-0000-0000-000012000000}">
       <formula1>"Да"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E3:E1002" xr:uid="{9C0FE118-86C2-4FF4-8CBC-76B969F59481}">
+      <formula1>"ШТ,КОМПЛ,Т,М,КМ,М3,М2,Л,КГ,ИЗД"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/www/src/assets/RequestTemplate.xlsx
+++ b/www/src/assets/RequestTemplate.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fedor\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karen\PhpstormProjects\gpnmarket-front\www\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5C66889-465F-4918-BE57-50AFF6C349F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2M+vjSeYIG9WMQQceLN73IvvE2iQJy7azehpLaXuxhPlrYmB8XKpvyrzfUVjxl6dLdOhKci2TGuiSZIAnECV3Q==" workbookSaltValue="/F38On1GzmT1UNFTdEW7rA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Заявка" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Заявка!$A$1:$M$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -42,9 +41,6 @@
     <t>№ п/п</t>
   </si>
   <si>
-    <t>Начальная максимальная цена</t>
-  </si>
-  <si>
     <t>Валюта</t>
   </si>
   <si>
@@ -247,11 +243,14 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>Начальная максимальная цена без НДС</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -571,23 +570,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -623,23 +605,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -815,14 +780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMN1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -849,42 +814,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>2</v>
-      </c>
       <c r="K1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" s="9"/>
       <c r="N1" s="10"/>
       <c r="O1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -900,13 +865,13 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="O2" s="7"/>
     </row>
@@ -1969,58 +1934,58 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="82" yWindow="447" count="20">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Валюта НМЦ" prompt="Выберите валюту начальной максимальной цены из списка, если указали НМЦ или оставьте пустым, если НМЦ не указана" sqref="J3:J1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Валюта НМЦ" prompt="Выберите валюту начальной максимальной цены из списка, если указали НМЦ или оставьте пустым, если НМЦ не указана" sqref="J3:J1048576">
       <formula1>"RUB,,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Условия оплаты" prompt="Выберите условия оплаты из списка_x000a_(поле обязательно для заполнения)" sqref="H3:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Условия оплаты" prompt="Выберите условия оплаты из списка_x000a_(поле обязательно для заполнения)" sqref="H3:H1048576">
       <formula1>"30 дней по факту поставки,60 дней по факту поставки,90 дней по факту поставки"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="НМЦ" prompt="Укажите начальную максимальную цену, если она известна_x000a_" sqref="I3:I1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="НМЦ" prompt="Укажите начальную максимальную цену, если она известна_x000a_" sqref="I3:I1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость разработки РКД" prompt="Выберите &quot;Да&quot; из списка, если требуется, или оставьте пустым, если не требуется" sqref="K3:K1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость разработки РКД" prompt="Выберите &quot;Да&quot; из списка, если требуется, или оставьте пустым, если не требуется" sqref="K3:K1048576">
       <formula1>"Да"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ШМР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение шефмонтажных работ или оставьте пустым, если не требуется" sqref="L3:L1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ШМР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение шефмонтажных работ или оставьте пустым, если не требуется" sqref="L3:L1048576">
       <formula1>"Да"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ПНР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение пуско-наладочных работ или оставьте пустым, если не требуется" sqref="M3:M1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость проведения ПНР" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение пуско-наладочных работ или оставьте пустым, если не требуется" sqref="M3:M1048576">
       <formula1>"Да"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N1097:N1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Поле для примечаний" prompt="В данном поле укажите любые дополнительные требования, комментарии и примечания" sqref="O3:O1048576" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Базис поставки" prompt="В данном поле укажите, куда именно нужно доставить запрашиваемую позицию_x000a_(поле обязательно для заполнения)" sqref="G3:G1048576" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР" sqref="D3:D1048543" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N1097:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Поле для примечаний" prompt="В данном поле укажите любые дополнительные требования, комментарии и примечания" sqref="O3:O1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Базис поставки" prompt="В данном поле укажите, куда именно нужно доставить запрашиваемую позицию_x000a_(поле обязательно для заполнения)" sqref="G3:G1048576"/>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР" sqref="D3:D1048543">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Срок поставки" prompt="Укажите срок, когда требуется доставка МТР в формате ДД.ММ.ГГГГ, если требуется как можно скорее - укажите ASAP_x000a_(поле обязательно для заполнения)" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции, поле опциональное" sqref="A3:A1048543 A1048545:A1048576" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Срок поставки" prompt="Укажите срок, когда требуется доставка МТР в формате ДД.ММ.ГГГГ, если требуется как можно скорее - укажите ASAP_x000a_(поле обязательно для заполнения)" sqref="F3:F1048576"/>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции, поле опциональное" sqref="A3:A1048543 A1048545:A1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Наименование МТР" prompt="Укажите здесь наименование требуемого вам МТР_x000a_(поле обязательно для заполнения)" sqref="B3:B1048576" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Наименование МТР" prompt="Укажите здесь наименование требуемого вам МТР_x000a_(поле обязательно для заполнения)" sqref="B3:B1048576">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Документ" prompt="Укажите здесь данные о документе в соответствии с которым должен быть изготовлен требуемый МТР, например ГОСТ, ТУ производителя, или наименование опросного листа_x000a_(поле обязательно для заполнения)" sqref="C3:C1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Документ" prompt="Укажите здесь данные о документе в соответствии с которым должен быть изготовлен требуемый МТР, например ГОСТ, ТУ производителя, или наименование опросного листа_x000a_(поле обязательно для заполнения)" sqref="C3:C1048576">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции" sqref="A1048544" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Порядковый номер" prompt="Здесь вы можете указать порядковый номер позиции" sqref="A1048544">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР_x000a_(поле обязательно для заполнения)" sqref="D1048544:D1048576" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Количество" prompt="В данном поле укажите требуемое количество МТР_x000a_(поле обязательно для заполнения)" sqref="D1048544:D1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1003:E1048543" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1003:E1048543">
       <formula1>"ШТ,КОМПЛ,Т,М,КМ,М3,М2,Л,КГ,ИЗД"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1048544:E1048576" xr:uid="{00000000-0002-0000-0000-000011000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E1048544:E1048576">
       <formula1>"М2,СМ3,МЛ,Л,М3,МГ,Г,КГ,Т,ИЗД,ПАР,ШТ,КОМПЛ"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N3:N1096" xr:uid="{00000000-0002-0000-0000-000012000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Необходимость ИК" prompt="Выберите &quot;Да&quot; из списка, если требуется проведение инспекционного контроля изготовления или оставьте пустым, если не требуется" sqref="N3:N1096">
       <formula1>"Да"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E3:E1002" xr:uid="{9C0FE118-86C2-4FF4-8CBC-76B969F59481}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Выбрана некорректная ЕИ" error="Выберите единицу измерения из списка, если в списке нет нужной единицы измерения - укажите это в примечаниях к позиции" promptTitle="Единица измерения" prompt="Выберите единицу измерения из списка_x000a_(поле обязательно для заполнения)" sqref="E3:E1002">
       <formula1>"ШТ,КОМПЛ,Т,М,КМ,М3,М2,Л,КГ,ИЗД"</formula1>
     </dataValidation>
   </dataValidations>
